--- a/germplasm/germplasm-mcpd.xlsx
+++ b/germplasm/germplasm-mcpd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate\datatemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\other\germinate-data-templates\germplasm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45228130-5E5A-4992-9369-43312EE24963}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD13D59-40A5-47B9-9653-3EB857286E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="SPECIES"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SPAUTHOR"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="SUBTAXA" dataDxfId="16">
-      <calculatedColumnFormula>IF(AND(NOT(ISBLANK(JS)), NOT(ISBLANK(K2))), J2&amp;K2, "")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(AND(NOT(ISBLANK(J2)), NOT(ISBLANK(K2))), J2&amp;K2, "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SUBTAUTHOR"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="CROPNAME"/>
@@ -1702,7 +1702,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="L2" t="str">
-        <f>IF(AND(NOT(ISBLANK(JS)), NOT(ISBLANK(K2))), J2&amp;K2, "")</f>
+        <f>IF(AND(NOT(ISBLANK(J2)), NOT(ISBLANK(K2))), J2&amp;K2, "")</f>
         <v/>
       </c>
       <c r="AU2" s="19" t="s">

--- a/germplasm/germplasm-mcpd.xlsx
+++ b/germplasm/germplasm-mcpd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\other\germinate-data-templates\germplasm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\germplasm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD13D59-40A5-47B9-9653-3EB857286E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F9789-F4E2-46F1-8CD5-9997819B8551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30315" yWindow="1515" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="257">
   <si>
     <t>PUID</t>
   </si>
@@ -159,9 +163,6 @@
   </si>
   <si>
     <t>Contact</t>
-  </si>
-  <si>
-    <t>Email</t>
   </si>
   <si>
     <t>Additional Information</t>
@@ -712,12 +713,120 @@
   <si>
     <t>Sample</t>
   </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>DEFINITION</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>A name given to the resource. Typically, a Title will be a name by which the resource is formally known.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>An account of the resource. Description may include but is not limited to: an abstract, a table of contents, a graphical representation, or a free-text account of the resource.</t>
+  </si>
+  <si>
+    <t>Rights</t>
+  </si>
+  <si>
+    <t>Information about rights held in and over the resource. Typically, rights information includes a statement about various property rights associated with the resource, including intellectual property rights.</t>
+  </si>
+  <si>
+    <t>Date of creation</t>
+  </si>
+  <si>
+    <t>A point or period of time associated with an event in the lifecycle of the resource. Date may be used to express temporal information at any level of granularity. Recommended best practice is to use an encoding scheme, such as the W3CDTF profile of ISO 8601 [W3CDTF].</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>An entity responsible for making the resource available. Examples of a Publisher include a person, an organization, or a service. Typically, the name of a Publisher should be used to indicate the entity.</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>The file format, physical medium, or dimensions of the resource. Examples of dimensions include size and duration. Recommended best practice is to use a controlled vocabulary such as the list of Internet Media Types [MIME].</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>A language of the resource. Recommended best practice is to use a controlled vocabulary such as RFC 4646 [RFC4646].</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>A related resource from which the described resource is derived. The described resource may be derived from the related resource in whole or in part. Recommended best practice is to identify the related resource by means of a string conforming to a formal identification system.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>The nature or genre of the resource. Recommended best practice is to use a controlled vocabulary such as the DCMI Type Vocabulary [DCMITYPE]. To describe the file format, physical medium, or dimensions of the resource, use the Format element.</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>The topic of the resource. Typically, the subject will be represented using keywords, key phrases, or classification codes. Recommended best practice is to use a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>The individual that can be contacted about this dataset.</t>
+  </si>
+  <si>
+    <t>Investigation Title</t>
+  </si>
+  <si>
+    <t>Investigation unique ID</t>
+  </si>
+  <si>
+    <t>Identifier comprising the unique name of the institution/database hosting the submission of the investigation data, and the accession number of the investigation in that institution.</t>
+  </si>
+  <si>
+    <t>Human-readable string summarising the investigation.</t>
+  </si>
+  <si>
+    <t>Investigation Description</t>
+  </si>
+  <si>
+    <t>Human-readable text describing the investigation in more detail.</t>
+  </si>
+  <si>
+    <t>Associated data file link</t>
+  </si>
+  <si>
+    <t>Link to the data file (or digital object) in a public database or in a persistent institutional repository; or identifier of the data file when submitted together with the MIAPPE submission.</t>
+  </si>
+  <si>
+    <t>Associated data file description</t>
+  </si>
+  <si>
+    <t>Description of the format of the data file. May be a standard file format name, or a description of organization of the data in a tabular file.</t>
+  </si>
+  <si>
+    <t>Associated data file version</t>
+  </si>
+  <si>
+    <t>The version of the dataset (the actual data).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,19 +873,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -828,9 +938,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -840,13 +955,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -858,18 +967,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="2" builtinId="11"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1015,11 +1163,97 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1046,8 +1280,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1062,6 +1296,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2A8F87D8-63A4-4D8A-99E3-6A6596DC1D83}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:C18" xr:uid="{2A8F87D8-63A4-4D8A-99E3-6A6596DC1D83}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{29393E36-F24E-4E80-9558-3AD2984DCEE3}" name="LABEL" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{801FBF89-54FB-45ED-BDA5-B302FD53FBA7}" name="DEFINITION" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{0B1E4E8B-5FD9-48AD-884A-D553CE05CF2C}" name="VALUE" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AQ2" totalsRowShown="0">
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PUID" dataCellStyle="Normal"/>
@@ -1075,7 +1321,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="GENUS"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="SPECIES"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SPAUTHOR"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="SUBTAXA" dataDxfId="16">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="SUBTAXA" dataDxfId="18">
       <calculatedColumnFormula>IF(AND(NOT(ISBLANK(J2)), NOT(ISBLANK(K2))), J2&amp;K2, "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SUBTAUTHOR"/>
@@ -1114,24 +1360,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:AO9" totalsRowShown="0">
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PUID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="INSTCODE" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ACCENUMB" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="COLLNUMB" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COLLCODE" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="COLLNAME" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="COLLINSTADDRESS" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="COLLMISSID" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="GENUS" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SPECIES" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="SPAUTHOR" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SUBTAXA" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SUBTAUTHOR" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CROPNAME" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="ACCENAME" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PUID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="INSTCODE" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ACCENUMB" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="COLLNUMB" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COLLCODE" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="COLLNAME" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="COLLINSTADDRESS" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="COLLMISSID" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="GENUS" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SPECIES" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="SPAUTHOR" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SUBTAXA" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SUBTAUTHOR" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CROPNAME" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="ACCENAME" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="ACQDATE"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="ORIGCTY"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="COLLSITE"/>
@@ -1144,7 +1390,7 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="GEOREFMETH"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="ELEVATION"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="COLLDATE"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="BREDCODE" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="BREDCODE" dataDxfId="2"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="BREDNAME"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="SAMPSTAT"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="ANCEST"/>
@@ -1163,7 +1409,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:E9" totalsRowShown="0">
   <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
@@ -1441,67 +1687,235 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B12" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="B25" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1510,7 +1924,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1567,7 +1981,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1685,49 +2099,49 @@
         <v>39</v>
       </c>
       <c r="AP1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>216</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="AU1" s="12" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="L2" t="str">
         <f>IF(AND(NOT(ISBLANK(J2)), NOT(ISBLANK(K2))), J2&amp;K2, "")</f>
         <v/>
       </c>
-      <c r="AU2" s="19" t="s">
+      <c r="AU2" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="AU3" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="AU3" s="19" t="s">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU4" s="18" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="AU4" s="19" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1800,8 +2214,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>46</v>
+      <c r="A1" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1825,307 +2239,307 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2147,21 +2561,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="15" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
@@ -2191,49 +2605,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -2316,80 +2730,80 @@
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>175</v>
       </c>
       <c r="P2">
         <v>20160225</v>
       </c>
       <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" t="s">
         <v>107</v>
-      </c>
-      <c r="R2" t="s">
-        <v>108</v>
       </c>
       <c r="S2">
         <v>26.183333000000001</v>
       </c>
       <c r="T2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U2">
         <v>91.733333000000002</v>
       </c>
       <c r="V2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W2">
         <v>10</v>
       </c>
       <c r="X2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y2" t="s">
         <v>183</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>184</v>
       </c>
       <c r="Z2">
         <v>44</v>
@@ -2397,17 +2811,17 @@
       <c r="AA2">
         <v>20130312</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC2" t="s">
         <v>159</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>160</v>
       </c>
       <c r="AD2">
         <v>410</v>
       </c>
       <c r="AE2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF2">
         <v>40</v>
@@ -2416,10 +2830,10 @@
         <v>1000456</v>
       </c>
       <c r="AK2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL2" t="s">
         <v>185</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>186</v>
       </c>
       <c r="AM2">
         <v>11</v>
@@ -2429,77 +2843,77 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="P3" s="11">
+        <v>20160225</v>
+      </c>
+      <c r="Q3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="P3" s="12">
-        <v>20160225</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>112</v>
       </c>
       <c r="S3">
         <v>-33.861480999999998</v>
       </c>
       <c r="T3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U3">
         <v>151.20547500000001</v>
       </c>
       <c r="V3" t="s">
-        <v>192</v>
-      </c>
-      <c r="X3" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="Z3">
         <v>37.983924899999998</v>
@@ -2507,17 +2921,17 @@
       <c r="AA3">
         <v>19591120</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AC3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD3" s="12">
+      <c r="AD3" s="11">
         <v>410</v>
       </c>
       <c r="AE3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF3">
         <v>40</v>
@@ -2525,11 +2939,11 @@
       <c r="AJ3">
         <v>1000994</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AK3" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL3" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="AM3">
         <v>11</v>
@@ -2539,77 +2953,77 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="G4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="11">
+        <v>20160225</v>
+      </c>
+      <c r="Q4" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="P4" s="12">
-        <v>20160225</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>115</v>
-      </c>
-      <c r="R4" t="s">
-        <v>116</v>
       </c>
       <c r="S4">
         <v>35.691111100000001</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>193</v>
+      <c r="T4" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="U4">
         <v>-0.64166670000000003</v>
       </c>
       <c r="V4" t="s">
-        <v>194</v>
-      </c>
-      <c r="X4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y4" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="Z4">
         <v>109.97423550000001</v>
@@ -2617,17 +3031,17 @@
       <c r="AA4">
         <v>19880214</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AB4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="11">
         <v>410</v>
       </c>
       <c r="AE4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF4">
         <v>40</v>
@@ -2635,11 +3049,11 @@
       <c r="AJ4">
         <v>1000223</v>
       </c>
-      <c r="AK4" s="12" t="s">
+      <c r="AK4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL4" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="AM4">
         <v>12</v>
@@ -2649,80 +3063,80 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="G5" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P5" s="11">
+        <v>20170101</v>
+      </c>
+      <c r="Q5" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="P5" s="12">
-        <v>20170101</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>119</v>
-      </c>
-      <c r="R5" t="s">
-        <v>120</v>
       </c>
       <c r="S5">
         <v>30.199003999999999</v>
       </c>
       <c r="T5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U5">
         <v>67.009708000000003</v>
       </c>
       <c r="V5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W5">
         <v>10</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y5" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="Z5">
         <v>1681.9605713000001</v>
@@ -2730,17 +3144,17 @@
       <c r="AA5">
         <v>19741007</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AB5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC5" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AC5" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD5" s="12">
+      <c r="AD5" s="11">
         <v>410</v>
       </c>
       <c r="AE5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF5">
         <v>40</v>
@@ -2748,11 +3162,11 @@
       <c r="AJ5">
         <v>1000500</v>
       </c>
-      <c r="AK5" s="12" t="s">
+      <c r="AK5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL5" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AL5" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="AM5">
         <v>12</v>
@@ -2762,77 +3176,77 @@
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="G6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" s="11">
+        <v>20170101</v>
+      </c>
+      <c r="Q6" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="12">
-        <v>20170101</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>123</v>
-      </c>
-      <c r="R6" t="s">
-        <v>124</v>
       </c>
       <c r="S6">
         <v>36.056389000000003</v>
       </c>
       <c r="T6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U6">
         <v>103.792222</v>
       </c>
       <c r="V6" t="s">
-        <v>198</v>
-      </c>
-      <c r="X6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y6" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="Z6">
         <v>1546.2326660000001</v>
@@ -2840,17 +3254,17 @@
       <c r="AA6">
         <v>20040403</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AB6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC6" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AC6" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD6" s="12">
+      <c r="AD6" s="11">
         <v>410</v>
       </c>
       <c r="AE6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF6">
         <v>40</v>
@@ -2858,11 +3272,11 @@
       <c r="AJ6">
         <v>1000999</v>
       </c>
-      <c r="AK6" s="12" t="s">
+      <c r="AK6" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL6" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AL6" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="AM6">
         <v>12</v>
@@ -2872,77 +3286,77 @@
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="G7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="11">
+        <v>20170125</v>
+      </c>
+      <c r="Q7" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="P7" s="12">
-        <v>20170125</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>127</v>
-      </c>
-      <c r="R7" t="s">
-        <v>128</v>
       </c>
       <c r="S7">
         <v>36.296999999999997</v>
       </c>
       <c r="T7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U7">
         <v>59.606200000000001</v>
       </c>
       <c r="V7" t="s">
-        <v>200</v>
-      </c>
-      <c r="X7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y7" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="Z7">
         <v>982</v>
@@ -2950,17 +3364,17 @@
       <c r="AA7">
         <v>20050808</v>
       </c>
-      <c r="AB7" s="16" t="s">
+      <c r="AB7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC7" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AC7" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD7" s="12">
+      <c r="AD7" s="11">
         <v>410</v>
       </c>
       <c r="AE7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF7">
         <v>40</v>
@@ -2968,11 +3382,11 @@
       <c r="AJ7">
         <v>1001001</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AK7" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL7" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AL7" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="AM7">
         <v>13</v>
@@ -2982,77 +3396,77 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="G8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="P8" s="11">
+        <v>20160225</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" t="s">
         <v>130</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" s="12">
-        <v>20160225</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" t="s">
-        <v>131</v>
       </c>
       <c r="S8">
         <v>28.666667</v>
       </c>
       <c r="T8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U8">
         <v>77.433333000000005</v>
       </c>
       <c r="V8" t="s">
-        <v>202</v>
-      </c>
-      <c r="X8" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y8" t="s">
         <v>183</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>184</v>
       </c>
       <c r="Z8">
         <v>215.4602203</v>
@@ -3060,17 +3474,17 @@
       <c r="AA8">
         <v>19920123</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AB8" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC8" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AC8" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD8" s="12">
+      <c r="AD8" s="11">
         <v>410</v>
       </c>
       <c r="AE8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF8">
         <v>40</v>
@@ -3078,11 +3492,11 @@
       <c r="AJ8">
         <v>1001340</v>
       </c>
-      <c r="AK8" s="12" t="s">
+      <c r="AK8" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL8" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AL8" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="AM8">
         <v>11</v>
@@ -3092,80 +3506,80 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="G9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="11">
+        <v>20160225</v>
+      </c>
+      <c r="Q9" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="P9" s="12">
-        <v>20160225</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>134</v>
-      </c>
-      <c r="R9" t="s">
-        <v>135</v>
       </c>
       <c r="S9">
         <v>38.412725999999999</v>
       </c>
       <c r="T9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U9">
         <v>27.138376000000001</v>
       </c>
       <c r="V9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W9">
         <v>5</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="X9" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y9" t="s">
         <v>183</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>184</v>
       </c>
       <c r="Z9">
         <v>121.0491104</v>
@@ -3173,17 +3587,17 @@
       <c r="AA9">
         <v>19751130</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AB9" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC9" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AC9" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD9" s="12">
+      <c r="AD9" s="11">
         <v>410</v>
       </c>
       <c r="AE9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF9">
         <v>40</v>
@@ -3191,11 +3605,11 @@
       <c r="AJ9">
         <v>1001656</v>
       </c>
-      <c r="AK9" s="12" t="s">
+      <c r="AK9" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL9" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AL9" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="AM9">
         <v>12</v>
@@ -3205,8 +3619,8 @@
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="16" t="s">
-        <v>157</v>
+      <c r="I21" s="15" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3281,156 +3695,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="10">
+        <v>1034</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="11">
-        <v>1034</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C3" s="10">
+        <v>1011</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="E3" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1011</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1023</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="E4" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1023</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="10">
+        <v>234</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="E5" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="11">
-        <v>234</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="10">
+        <v>884</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="E6" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="11">
-        <v>884</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="10">
+        <v>101</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="E7" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="11">
-        <v>101</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2034</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="E8" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2034</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="10">
+        <v>67</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="11">
-        <v>67</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/germplasm/germplasm-mcpd.xlsx
+++ b/germplasm/germplasm-mcpd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\germplasm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F9789-F4E2-46F1-8CD5-9997819B8551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA32E6D8-97EE-4E4B-8765-E8CDA1ECC431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="1515" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
@@ -1006,20 +1006,6 @@
   <dxfs count="26">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -1163,6 +1149,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1256,6 +1249,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1296,12 +1296,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2A8F87D8-63A4-4D8A-99E3-6A6596DC1D83}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2A8F87D8-63A4-4D8A-99E3-6A6596DC1D83}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:C18" xr:uid="{2A8F87D8-63A4-4D8A-99E3-6A6596DC1D83}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{29393E36-F24E-4E80-9558-3AD2984DCEE3}" name="LABEL" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{801FBF89-54FB-45ED-BDA5-B302FD53FBA7}" name="DEFINITION" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{0B1E4E8B-5FD9-48AD-884A-D553CE05CF2C}" name="VALUE" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{29393E36-F24E-4E80-9558-3AD2984DCEE3}" name="LABEL" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{801FBF89-54FB-45ED-BDA5-B302FD53FBA7}" name="DEFINITION" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0B1E4E8B-5FD9-48AD-884A-D553CE05CF2C}" name="VALUE" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1321,7 +1321,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="GENUS"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="SPECIES"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SPAUTHOR"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="SUBTAXA" dataDxfId="18">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="SUBTAXA" dataDxfId="16">
       <calculatedColumnFormula>IF(AND(NOT(ISBLANK(J2)), NOT(ISBLANK(K2))), J2&amp;K2, "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SUBTAUTHOR"/>
@@ -1363,21 +1363,21 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:AO9" totalsRowShown="0">
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PUID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="INSTCODE" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ACCENUMB" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="COLLNUMB" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COLLCODE" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="COLLNAME" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="COLLINSTADDRESS" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="COLLMISSID" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="GENUS" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SPECIES" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="SPAUTHOR" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SUBTAXA" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SUBTAUTHOR" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CROPNAME" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="ACCENAME" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PUID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="INSTCODE" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ACCENUMB" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="COLLNUMB" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COLLCODE" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="COLLNAME" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="COLLINSTADDRESS" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="COLLMISSID" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="GENUS" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SPECIES" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="SPAUTHOR" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SUBTAXA" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SUBTAUTHOR" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CROPNAME" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="ACCENAME" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="ACQDATE"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="ORIGCTY"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="COLLSITE"/>
@@ -1390,7 +1390,7 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="GEOREFMETH"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="ELEVATION"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="COLLDATE"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="BREDCODE" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="BREDCODE" dataDxfId="0"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="BREDNAME"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="SAMPSTAT"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="ANCEST"/>
@@ -1690,7 +1690,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,7 +1904,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="23" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2141,7 +2141,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/germplasm/germplasm-mcpd.xlsx
+++ b/germplasm/germplasm-mcpd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\germplasm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA32E6D8-97EE-4E4B-8765-E8CDA1ECC431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACAD5C-E491-43AB-AF3A-D00C214DB1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15900" yWindow="4185" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="257">
   <si>
     <t>PUID</t>
   </si>
@@ -1361,8 +1361,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:AO9" totalsRowShown="0">
-  <tableColumns count="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:AQ9" totalsRowShown="0">
+  <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PUID" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="INSTCODE" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ACCENUMB" dataDxfId="13"/>
@@ -1404,6 +1404,8 @@
     <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="STORAGE"/>
     <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="MLSSTAT"/>
     <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="REMARKS"/>
+    <tableColumn id="42" xr3:uid="{C1D72FCB-FA8A-4239-9D0A-2DC9C4F96305}" name="Entity type"/>
+    <tableColumn id="43" xr3:uid="{B3B1976D-371C-4399-B242-A9C7A73A0848}" name="Entity parent ACCENUMB"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1924,8 +1926,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2234,7 @@
   <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,10 +2555,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AO9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2602,9 +2604,11 @@
     <col min="39" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.85546875" customWidth="1"/>
+    <col min="43" max="43" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2728,8 +2732,14 @@
       <c r="AO1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP1" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>204</v>
       </c>
@@ -2841,8 +2851,12 @@
       <c r="AN2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ2" s="11"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>205</v>
       </c>
@@ -2951,8 +2965,11 @@
       <c r="AN3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP3" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>206</v>
       </c>
@@ -3061,8 +3078,11 @@
       <c r="AN4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP4" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>207</v>
       </c>
@@ -3174,8 +3194,11 @@
       <c r="AN5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP5" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>208</v>
       </c>
@@ -3284,8 +3307,11 @@
       <c r="AN6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP6" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>209</v>
       </c>
@@ -3394,8 +3420,11 @@
       <c r="AN7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP7" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>210</v>
       </c>
@@ -3504,8 +3533,11 @@
       <c r="AN8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP8" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>211</v>
       </c>
@@ -3616,6 +3648,9 @@
       </c>
       <c r="AN9">
         <v>0</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
@@ -3624,7 +3659,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="41">
+  <dataValidations count="42">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Remarks" prompt="Add notes or elaborate on descriptors with value 99 or 999 (=Other).Prefix remarks with the field name they refer to and a colon without space, e.g. COLLSRC:riverside. Distinct remarks referring to different fields are separated by semicolon without space" sqref="AO1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MLS Status Of Accession" prompt="Status of the accession with regards to Multilateral System (MLS) of the ITPGRFA. 0 - No (not included); 1 - Yes (included); 99 - Other (elaborate in REMARKS field, e.g. 'under development')._x000a_Leave empty if status is not known. " sqref="AN1" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Type Of Germplasm Storage" prompt="If germplasm is maintained under different types of storage, multiple choices are allowed, separated by a semicolon (e.g. 20;30). (Refer to FAO/IPGRI Genebank Standards 1994 for details on storage type.) For details see tab 'INFO'." sqref="AM1" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
@@ -3666,6 +3701,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Accession Number" prompt="This is the unique identifier for accessions within a genebank, and is assigned when a sample is entered into the genebank collection (e.g. ‘PI 113869’)." sqref="C1" xr:uid="{00000000-0002-0000-0400-000026000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Institute Code" prompt="Code of the institute where the accession is maintained. Codes consist of 3-letter ISO 3166 country coe of the country where the institute is located plus a number (e.g. COL001)._x000a_Current set of institute codes is available from http://www.fao.org/wiews." sqref="B1" xr:uid="{00000000-0002-0000-0400-000027000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Persistent Unique Identifier" prompt="Any persistent, unique identifier assigned to the accession so it can be unambiguously referenced at the global level and the information associated with it harvested through automated means. Report one PUID for each accession._x000a_" sqref="A1" xr:uid="{00000000-0002-0000-0400-000028000000}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="AP1:AP1048576" xr:uid="{CE09E684-79F3-4DAD-B54D-8023BFF3948B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/germplasm/germplasm-mcpd.xlsx
+++ b/germplasm/germplasm-mcpd.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\germplasm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACAD5C-E491-43AB-AF3A-D00C214DB1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65716A-D7E3-4C57-97CB-6BA0B8CB04EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15900" yWindow="4185" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
     <sheet name="ADDITIONAL_ATTRIBUTES" sheetId="3" r:id="rId3"/>
     <sheet name="INFO" sheetId="4" r:id="rId4"/>
-    <sheet name="DATA_EXAMPLE" sheetId="5" r:id="rId5"/>
-    <sheet name="ADDITIONAL_ATTRIBUTES_EXAMPLE" sheetId="6" r:id="rId6"/>
+    <sheet name="TYPES" sheetId="7" r:id="rId5"/>
+    <sheet name="DATA_EXAMPLE" sheetId="5" r:id="rId6"/>
+    <sheet name="ADDITIONAL_ATTRIBUTES_EXAMPLE" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -938,7 +939,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -961,17 +962,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
@@ -988,10 +984,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1004,6 +1000,20 @@
     <cellStyle name="Warning Text" xfId="2" builtinId="11"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1149,13 +1159,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1249,13 +1252,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1296,12 +1292,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2A8F87D8-63A4-4D8A-99E3-6A6596DC1D83}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2A8F87D8-63A4-4D8A-99E3-6A6596DC1D83}" name="Table7" displayName="Table7" ref="A1:C18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:C18" xr:uid="{2A8F87D8-63A4-4D8A-99E3-6A6596DC1D83}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{29393E36-F24E-4E80-9558-3AD2984DCEE3}" name="LABEL" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{801FBF89-54FB-45ED-BDA5-B302FD53FBA7}" name="DEFINITION" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0B1E4E8B-5FD9-48AD-884A-D553CE05CF2C}" name="VALUE" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{29393E36-F24E-4E80-9558-3AD2984DCEE3}" name="LABEL" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{801FBF89-54FB-45ED-BDA5-B302FD53FBA7}" name="DEFINITION" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{0B1E4E8B-5FD9-48AD-884A-D553CE05CF2C}" name="VALUE" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1321,7 +1317,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="GENUS"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="SPECIES"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SPAUTHOR"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="SUBTAXA" dataDxfId="16">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="SUBTAXA" dataDxfId="18">
       <calculatedColumnFormula>IF(AND(NOT(ISBLANK(J2)), NOT(ISBLANK(K2))), J2&amp;K2, "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SUBTAUTHOR"/>
@@ -1361,23 +1357,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94B707B0-6D24-4DB7-A0CA-73DA100B9975}" name="Table3" displayName="Table3" ref="A1:A4" totalsRowShown="0">
+  <autoFilter ref="A1:A4" xr:uid="{94B707B0-6D24-4DB7-A0CA-73DA100B9975}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{D4DBDD83-B7A3-4659-A09E-FFA4B589D3AB}" name="Possible entity types"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:AQ9" totalsRowShown="0">
   <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PUID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="INSTCODE" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ACCENUMB" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="COLLNUMB" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COLLCODE" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="COLLNAME" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="COLLINSTADDRESS" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="COLLMISSID" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="GENUS" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SPECIES" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="SPAUTHOR" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SUBTAXA" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SUBTAUTHOR" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CROPNAME" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="ACCENAME" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PUID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="INSTCODE" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ACCENUMB" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="COLLNUMB" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COLLCODE" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="COLLNAME" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="COLLINSTADDRESS" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="COLLMISSID" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="GENUS" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SPECIES" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="SPAUTHOR" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SUBTAXA" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SUBTAUTHOR" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CROPNAME" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="ACCENAME" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="ACQDATE"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="ORIGCTY"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="COLLSITE"/>
@@ -1390,7 +1396,7 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="GEOREFMETH"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="ELEVATION"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="COLLDATE"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="BREDCODE" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="BREDCODE" dataDxfId="2"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="BREDNAME"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="SAMPSTAT"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="ANCEST"/>
@@ -1411,7 +1417,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:E9" totalsRowShown="0">
   <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
@@ -1691,7 +1697,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1702,180 +1708,175 @@
     <col min="3" max="3" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C13" s="27"/>
-    </row>
-    <row r="14" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="27"/>
-    </row>
-    <row r="15" spans="1:3" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="27"/>
-    </row>
-    <row r="16" spans="1:3" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" spans="1:3" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="27"/>
-    </row>
-    <row r="18" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="27"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="12" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1896,17 +1897,17 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="23" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1924,10 +1925,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1:AQ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,14 +1977,14 @@
     <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2106,48 +2107,20 @@
       <c r="AQ1" t="s">
         <v>216</v>
       </c>
-      <c r="AU1" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L2" t="str">
         <f>IF(AND(NOT(ISBLANK(J2)), NOT(ISBLANK(K2))), J2&amp;K2, "")</f>
         <v/>
       </c>
-      <c r="AU2" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="AU3" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="AU4" s="18" t="s">
-        <v>220</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="839" yWindow="250" count="42">
+  <dataValidations xWindow="839" yWindow="250" count="41">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Persistent Unique Identifier" prompt="Any persistent, unique identifier assigned to the accession so it can be unambiguously referenced at the global level and the information associated with it harvested through automated means. Report one PUID for each accession._x000a_" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Institute Code" prompt="Code of the institute where the accession is maintained. Codes consist of 3-letter ISO 3166 country coe of the country where the institute is located plus a number (e.g. COL001)._x000a_Current set of institute codes is available from http://www.fao.org/wiews." sqref="B1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Accession Number" prompt="This is the unique identifier for accessions within a genebank, and is assigned when a sample is entered into the genebank collection (e.g. ‘PI 113869’). MANDATORY." sqref="C1" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
@@ -2189,15 +2162,24 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Type Of Germplasm Storage" prompt="If germplasm is maintained under different types of storage, multiple choices are allowed, separated by a semicolon (e.g. 20;30). (Refer to FAO/IPGRI Genebank Standards 1994 for details on storage type.) For details see tab 'INFO'." sqref="AM1" xr:uid="{00000000-0002-0000-0100-000026000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MLS Status Of Accession" prompt="Status of the accession with regards to Multilateral System (MLS) of the ITPGRFA. 0 - No (not included); 1 - Yes (included); 99 - Other (elaborate in REMARKS field, e.g. 'under development')._x000a_Leave empty if status is not known. " sqref="AN1" xr:uid="{00000000-0002-0000-0100-000027000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Remarks" prompt="Add notes or elaborate on descriptors with value 99 or 999 (=Other).Prefix remarks with the field name they refer to and a colon without space, e.g. COLLSRC:riverside. Distinct remarks referring to different fields are separated by semicolon without space" sqref="AO1" xr:uid="{00000000-0002-0000-0100-000028000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP1:AP1048576" xr:uid="{21B4E42D-86C5-4BE4-88D7-E2B78B20C718}">
-      <formula1>$AU$2:$AU$4</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="839" yWindow="250" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21B4E42D-86C5-4BE4-88D7-E2B78B20C718}">
+          <x14:formula1>
+            <xm:f>TYPES!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>AP1:AP1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2551,6 +2533,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A342636D-808B-4848-9AB6-A0285FBF07C7}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
@@ -2563,21 +2586,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
@@ -2609,49 +2632,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -2732,57 +2755,57 @@
       <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" t="s">
         <v>215</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" t="s">
         <v>173</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" t="s">
         <v>174</v>
       </c>
       <c r="P2">
@@ -2821,7 +2844,7 @@
       <c r="AA2">
         <v>20130312</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" t="s">
         <v>158</v>
       </c>
       <c r="AC2" t="s">
@@ -2851,58 +2874,57 @@
       <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" t="s">
         <v>218</v>
       </c>
-      <c r="AQ2" s="11"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" t="s">
         <v>169</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" t="s">
         <v>172</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" t="s">
         <v>173</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3">
         <v>20160225</v>
       </c>
       <c r="Q3" t="s">
@@ -2923,10 +2945,10 @@
       <c r="V3" t="s">
         <v>191</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" t="s">
         <v>183</v>
       </c>
       <c r="Z3">
@@ -2935,13 +2957,13 @@
       <c r="AA3">
         <v>19591120</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" t="s">
         <v>158</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" t="s">
         <v>159</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3">
         <v>410</v>
       </c>
       <c r="AE3" t="s">
@@ -2953,10 +2975,10 @@
       <c r="AJ3">
         <v>1000994</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" t="s">
         <v>184</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" t="s">
         <v>185</v>
       </c>
       <c r="AM3">
@@ -2965,57 +2987,57 @@
       <c r="AN3">
         <v>0</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AP3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" t="s">
         <v>173</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4">
         <v>20160225</v>
       </c>
       <c r="Q4" t="s">
@@ -3027,7 +3049,7 @@
       <c r="S4">
         <v>35.691111100000001</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" t="s">
         <v>192</v>
       </c>
       <c r="U4">
@@ -3036,10 +3058,10 @@
       <c r="V4" t="s">
         <v>193</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" t="s">
         <v>182</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" t="s">
         <v>183</v>
       </c>
       <c r="Z4">
@@ -3048,13 +3070,13 @@
       <c r="AA4">
         <v>19880214</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" t="s">
         <v>158</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AC4" t="s">
         <v>159</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AD4">
         <v>410</v>
       </c>
       <c r="AE4" t="s">
@@ -3066,10 +3088,10 @@
       <c r="AJ4">
         <v>1000223</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AK4" t="s">
         <v>184</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AL4" t="s">
         <v>185</v>
       </c>
       <c r="AM4">
@@ -3078,57 +3100,57 @@
       <c r="AN4">
         <v>0</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AP4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" t="s">
         <v>169</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" t="s">
         <v>171</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" t="s">
         <v>172</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" t="s">
         <v>173</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" t="s">
         <v>177</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5">
         <v>20170101</v>
       </c>
       <c r="Q5" t="s">
@@ -3152,10 +3174,10 @@
       <c r="W5">
         <v>10</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" t="s">
         <v>182</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" t="s">
         <v>183</v>
       </c>
       <c r="Z5">
@@ -3164,13 +3186,13 @@
       <c r="AA5">
         <v>19741007</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AB5" t="s">
         <v>158</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AC5" t="s">
         <v>159</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5">
         <v>410</v>
       </c>
       <c r="AE5" t="s">
@@ -3182,10 +3204,10 @@
       <c r="AJ5">
         <v>1000500</v>
       </c>
-      <c r="AK5" s="11" t="s">
+      <c r="AK5" t="s">
         <v>184</v>
       </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AL5" t="s">
         <v>185</v>
       </c>
       <c r="AM5">
@@ -3194,57 +3216,57 @@
       <c r="AN5">
         <v>0</v>
       </c>
-      <c r="AP5" s="11" t="s">
+      <c r="AP5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" t="s">
         <v>168</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" t="s">
         <v>169</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" t="s">
         <v>172</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" t="s">
         <v>173</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" t="s">
         <v>178</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6">
         <v>20170101</v>
       </c>
       <c r="Q6" t="s">
@@ -3265,10 +3287,10 @@
       <c r="V6" t="s">
         <v>197</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" t="s">
         <v>182</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" t="s">
         <v>183</v>
       </c>
       <c r="Z6">
@@ -3277,13 +3299,13 @@
       <c r="AA6">
         <v>20040403</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AB6" t="s">
         <v>158</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" t="s">
         <v>159</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AD6">
         <v>410</v>
       </c>
       <c r="AE6" t="s">
@@ -3295,10 +3317,10 @@
       <c r="AJ6">
         <v>1000999</v>
       </c>
-      <c r="AK6" s="11" t="s">
+      <c r="AK6" t="s">
         <v>184</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AL6" t="s">
         <v>185</v>
       </c>
       <c r="AM6">
@@ -3307,57 +3329,57 @@
       <c r="AN6">
         <v>0</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="AP6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" t="s">
         <v>170</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" t="s">
         <v>172</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" t="s">
         <v>173</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7">
         <v>20170125</v>
       </c>
       <c r="Q7" t="s">
@@ -3378,10 +3400,10 @@
       <c r="V7" t="s">
         <v>199</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" t="s">
         <v>183</v>
       </c>
       <c r="Z7">
@@ -3390,13 +3412,13 @@
       <c r="AA7">
         <v>20050808</v>
       </c>
-      <c r="AB7" s="15" t="s">
+      <c r="AB7" t="s">
         <v>158</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" t="s">
         <v>159</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7">
         <v>410</v>
       </c>
       <c r="AE7" t="s">
@@ -3408,10 +3430,10 @@
       <c r="AJ7">
         <v>1001001</v>
       </c>
-      <c r="AK7" s="11" t="s">
+      <c r="AK7" t="s">
         <v>184</v>
       </c>
-      <c r="AL7" s="11" t="s">
+      <c r="AL7" t="s">
         <v>185</v>
       </c>
       <c r="AM7">
@@ -3420,57 +3442,57 @@
       <c r="AN7">
         <v>0</v>
       </c>
-      <c r="AP7" s="11" t="s">
+      <c r="AP7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" t="s">
         <v>170</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" t="s">
         <v>169</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" t="s">
         <v>171</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" t="s">
         <v>172</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" t="s">
         <v>173</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" t="s">
         <v>180</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8">
         <v>20160225</v>
       </c>
       <c r="Q8" t="s">
@@ -3491,7 +3513,7 @@
       <c r="V8" t="s">
         <v>201</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X8" t="s">
         <v>182</v>
       </c>
       <c r="Y8" t="s">
@@ -3503,13 +3525,13 @@
       <c r="AA8">
         <v>19920123</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AB8" t="s">
         <v>158</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AC8" t="s">
         <v>159</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AD8">
         <v>410</v>
       </c>
       <c r="AE8" t="s">
@@ -3521,10 +3543,10 @@
       <c r="AJ8">
         <v>1001340</v>
       </c>
-      <c r="AK8" s="11" t="s">
+      <c r="AK8" t="s">
         <v>184</v>
       </c>
-      <c r="AL8" s="11" t="s">
+      <c r="AL8" t="s">
         <v>185</v>
       </c>
       <c r="AM8">
@@ -3533,57 +3555,57 @@
       <c r="AN8">
         <v>0</v>
       </c>
-      <c r="AP8" s="11" t="s">
+      <c r="AP8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" t="s">
         <v>171</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" t="s">
         <v>172</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" t="s">
         <v>173</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9">
         <v>20160225</v>
       </c>
       <c r="Q9" t="s">
@@ -3607,7 +3629,7 @@
       <c r="W9">
         <v>5</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" t="s">
         <v>182</v>
       </c>
       <c r="Y9" t="s">
@@ -3619,13 +3641,13 @@
       <c r="AA9">
         <v>19751130</v>
       </c>
-      <c r="AB9" s="15" t="s">
+      <c r="AB9" t="s">
         <v>158</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AC9" t="s">
         <v>159</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AD9">
         <v>410</v>
       </c>
       <c r="AE9" t="s">
@@ -3637,10 +3659,10 @@
       <c r="AJ9">
         <v>1001656</v>
       </c>
-      <c r="AK9" s="11" t="s">
+      <c r="AK9" t="s">
         <v>184</v>
       </c>
-      <c r="AL9" s="11" t="s">
+      <c r="AL9" t="s">
         <v>185</v>
       </c>
       <c r="AM9">
@@ -3649,12 +3671,12 @@
       <c r="AN9">
         <v>0</v>
       </c>
-      <c r="AP9" s="11" t="s">
+      <c r="AP9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="15" t="s">
+      <c r="I21" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3710,7 +3732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="4"/>
@@ -3734,152 +3756,152 @@
       <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>1034</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>1011</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>1023</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>234</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>884</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>101</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>2034</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>67</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" t="s">
         <v>147</v>
       </c>
     </row>
